--- a/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_36.xlsx
+++ b/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_36.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>상해종합_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>상해종합_CNY/USD</t>
   </si>
   <si>
-    <t>상해종합_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>상해종합_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>상해종합_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>상해종합_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OECD 소비자물가</t>
   </si>
   <si>
-    <t>상해종합_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>상해종합_두바이유가</t>
   </si>
   <si>
-    <t>상해종합_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>상해종합_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>상해종합_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>상해종합_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>상해종합_미국 REER</t>
   </si>
   <si>
-    <t>상해종합_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>상해종합_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>상해종합_발틱 해운임지수</t>
   </si>
   <si>
-    <t>상해종합_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>상해종합_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>상해종합_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>상해종합_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>상해종합_유로존 Core CPI</t>
   </si>
   <si>
-    <t>상해종합_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>상해종합_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>상해종합_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>상해종합_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>상해종합_일본 ESI</t>
   </si>
   <si>
-    <t>상해종합_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 REER</t>
   </si>
   <si>
-    <t>상해종합_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>상해종합_중국 M1 YoY</t>
   </si>
   <si>
-    <t>상해종합_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>상해종합_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>상해종합_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,2561 +1893,2261 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="II3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:250">
+      <c r="A4" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:275">
-      <c r="A4" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="B4" t="n">
-        <v>-0.2716686021847661</v>
+        <v>-0.3293175804156933</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3727065422022948</v>
+        <v>0.1784720574463259</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2869989687251269</v>
+        <v>0.5709077757289759</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5574077769194986</v>
+        <v>0.1783664702315024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05401519028260241</v>
+        <v>0.3678475917412329</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.533212900214875</v>
+        <v>0.3036431250444885</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09429942360724221</v>
+        <v>0.1386078280378424</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1166892850389247</v>
+        <v>0.2973003013524229</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.169127084536347</v>
+        <v>0.21639299738609</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1832653530214962</v>
+        <v>0.5019140723794236</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.280427986525141</v>
+        <v>-0.4904577575855755</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2830319516904147</v>
+        <v>0.2168789377164788</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.3064628109562285</v>
+        <v>-0.5253165227865831</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2959379511148661</v>
+        <v>0.3605101479463563</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8266714140159732</v>
+        <v>0.3817336022732125</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1426974514687055</v>
+        <v>0.1396754910808026</v>
       </c>
       <c r="R4" t="n">
-        <v>0.244559031543991</v>
+        <v>0.1680154668419817</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.2644243246390547</v>
+        <v>0.355612541046252</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1169638137705064</v>
+        <v>0.2063151396919767</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3720677830338147</v>
+        <v>0.3569972904844692</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2090046772737259</v>
+        <v>0.4769542720626698</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.5602756843146492</v>
+        <v>0.2677500356839197</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.4873604625492454</v>
+        <v>0.2288812772679529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5826107376139255</v>
+        <v>0.3008548660713445</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2044273163243319</v>
+        <v>0.4677234975298972</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2465326404727085</v>
+        <v>0.4001550375018638</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7119325105168631</v>
+        <v>0.2970214134771376</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06439732851101716</v>
+        <v>0.2210420206606147</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.03310678778779497</v>
+        <v>0.3133974045019329</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3171145399320727</v>
+        <v>0.3860322754686661</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.2352291446656835</v>
+        <v>0.3490600750141772</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.3593295462078048</v>
+        <v>0.4829137399483762</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.05404774475202043</v>
+        <v>0.2760149513506333</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.4266811402431095</v>
+        <v>0.3898727933695149</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1877752841147529</v>
+        <v>-0.3669054765308811</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.356094035556397</v>
+        <v>0.4723434849412335</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.4112492264110045</v>
+        <v>-0.3606856640621419</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.78982451596855</v>
+        <v>-0.5746809130563817</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.5366516704913875</v>
+        <v>-0.3285170358431341</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1742355093726621</v>
+        <v>0.3407714167663024</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.1312816196166942</v>
+        <v>0.3023514140140844</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5071980380022211</v>
+        <v>-0.2657960977379004</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1371469982574525</v>
+        <v>-0.4597780957376053</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.7891284780015854</v>
+        <v>0.367216214409823</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.4749912577220775</v>
+        <v>0.3502592309019173</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.3521370827896375</v>
+        <v>0.3521792826189979</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2657640186961804</v>
+        <v>0.3838452131516122</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.3166817886215615</v>
+        <v>0.3813395904253007</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.3527731785867334</v>
+        <v>0.3585690057986012</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.3388887848349149</v>
+        <v>0.3430498582749082</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.2200915980916207</v>
+        <v>0.349335211426038</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.2047866152861317</v>
+        <v>0.448180432056851</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.468572585854183</v>
+        <v>0.4542639881723076</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.3866120757345581</v>
+        <v>0.0876374487114463</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.3028278065854474</v>
+        <v>0.5937808733582011</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.198046910895946</v>
+        <v>0.6603091313961298</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1922262210424893</v>
+        <v>0.2055237130296558</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.4577800185219179</v>
+        <v>-0.3957502356491943</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.4845604862241887</v>
+        <v>0.2638606423203185</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.2092803081614574</v>
+        <v>-0.3117690063890234</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6419872623845255</v>
+        <v>0.3870754474866571</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.6484145866595684</v>
+        <v>0.1685151192782509</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.4148118255191429</v>
+        <v>0.3720746689762359</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.169339990719708</v>
+        <v>0.1613731185373186</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0.2065194081941194</v>
+        <v>0.2833204556011282</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0.2530414845732827</v>
+        <v>-0.06349014680902228</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.7428467474167207</v>
+        <v>0.3331828429727518</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.1226164928260029</v>
+        <v>0.5226327335968284</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.7155865133178652</v>
+        <v>0.2446880115939591</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.3464992624592647</v>
+        <v>0.385037249919974</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.2175442417869732</v>
+        <v>0.6851699773438003</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.4711133120507046</v>
+        <v>0.6538873850305884</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.1580199813580712</v>
+        <v>0.6076262323407937</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.03476222242346206</v>
+        <v>0.6075890875592281</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0.0410114005716764</v>
+        <v>-0.5755530281600769</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.1335430706023163</v>
+        <v>-0.4062442867837445</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.10986885139283</v>
+        <v>0.2983869667553135</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.2913503572068297</v>
+        <v>0.5114842410678395</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.6451967014286103</v>
+        <v>0.1198978514130974</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.7342632005399801</v>
+        <v>0.7027958705040696</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.3372887897841887</v>
+        <v>0.6993082644837414</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.614512391709745</v>
+        <v>0.3843144250395967</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.4267180108877443</v>
+        <v>0.1794998301007166</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.3968755051879915</v>
+        <v>-0.3398080697348324</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.4430390611683521</v>
+        <v>0.1660663722698448</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.2902973249510805</v>
+        <v>0.5116759765615433</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.5163450936072062</v>
+        <v>0.2546932205066627</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0.1986551971298816</v>
+        <v>0.5767081967255642</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.7331375269654612</v>
+        <v>0.2846054801533491</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.6311053362364482</v>
+        <v>0.5499433583783901</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.3647495842289818</v>
+        <v>0.1805753558346874</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.1357333791835741</v>
+        <v>-0.1335994593935026</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.1219442807184009</v>
+        <v>0.3532272868578928</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.5216986738438797</v>
+        <v>0.1370644595152684</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.7984077185207982</v>
+        <v>0.1528451243351456</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.3691017396323667</v>
+        <v>0.3975229836191226</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.7730917367175659</v>
+        <v>-0.1045196304189905</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.2116684793308495</v>
+        <v>0.3517509673688315</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6199421394174027</v>
+        <v>0.3826440073674224</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.3654834242408883</v>
+        <v>0.2977820132999383</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.7140266727572123</v>
+        <v>0.04263707817345211</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.7644606321536844</v>
+        <v>-0.1282271455276947</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.2726655951261285</v>
+        <v>-0.1235848552372318</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.6567148673381713</v>
+        <v>0.5393327369653124</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.4498118544255654</v>
+        <v>0.4141686192386604</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0.2602694673920025</v>
+        <v>-0.1282384937318086</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.1464534080026581</v>
+        <v>0.4266690219132628</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.08691884588367903</v>
+        <v>0.3477743331354466</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.2814797083885628</v>
+        <v>-0.2606449302108997</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.2490028490287924</v>
+        <v>0.2139322776619228</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.1944194135158174</v>
+        <v>0.360191393632476</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.3817436317987695</v>
+        <v>0.07448165117993648</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.4881591161420642</v>
+        <v>-0.6394837414559537</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.1656355868572273</v>
+        <v>0.2773455306391425</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.5126008838779228</v>
+        <v>0.4529944434221694</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.129533509775114</v>
+        <v>-0.2318041310929296</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.2093911944452123</v>
+        <v>0.3906166799043858</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2159879499100727</v>
+        <v>-0.1367441028148958</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.5592230864250182</v>
+        <v>-0.4279051969392644</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.294642132030643</v>
+        <v>0.1805753558346874</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.1286129391433437</v>
+        <v>0.1625866156772705</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.1291751653823205</v>
+        <v>0.3470768073090799</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0.4086567461081757</v>
+        <v>0.3218512897660011</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.5500137542251808</v>
+        <v>0.1434552548680258</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.3348175004463235</v>
+        <v>0.3838696527433957</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.5498352142568855</v>
+        <v>0.4966132580223187</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.2948390999814617</v>
+        <v>-0.5102856612567297</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.3190155211815627</v>
+        <v>0.2660884735203909</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.7834018563954986</v>
+        <v>0.2578459462505506</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.1787368582500032</v>
+        <v>0.2719290276621222</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5859625775506376</v>
+        <v>0.3307024187433579</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.3677739009858642</v>
+        <v>0.2955941941090781</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0.3654834242408883</v>
+        <v>-0.303621886993464</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.2080510055456787</v>
+        <v>-0.3238418224764888</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.5610657430007664</v>
+        <v>-0.2517812691306226</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.3002484154279797</v>
+        <v>0.1002873605791561</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.1920282658141736</v>
+        <v>0.3308547083650015</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.3636042569170201</v>
+        <v>-0.1061603041957623</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.3248587934046245</v>
+        <v>0.2008269861274875</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.3932455645044689</v>
+        <v>0.3386606634054727</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.04467776944939897</v>
+        <v>0.296012333841602</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.1859140472577481</v>
+        <v>0.185930086403909</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.08011619850293762</v>
+        <v>0.2654268009750187</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.286196142156173</v>
+        <v>-0.3366671128055045</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.3036133683929236</v>
+        <v>0.09522279261284454</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.1053464623997065</v>
+        <v>0.1148643800682809</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.5831567662196377</v>
+        <v>0.123047578123251</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.3055783245882212</v>
+        <v>-0.4168194374953364</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.6774136470283336</v>
+        <v>-0.1124837953806178</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.5656630780289025</v>
+        <v>-0.3325432520200601</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.5079608138084756</v>
+        <v>0.2012997948119364</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.1803093149577383</v>
+        <v>0.3700361737136943</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.09316810932703452</v>
+        <v>0.4610765162446617</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.1149386354547652</v>
+        <v>0.3240817562227558</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.3006417756805888</v>
+        <v>1</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.104078633118708</v>
+        <v>0.9357458953989147</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.2295151984179896</v>
+        <v>-0.6035724232029668</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.1658285118647355</v>
+        <v>0.5019140723794236</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.1277997225757266</v>
+        <v>0.408399455473279</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.7260936576771756</v>
+        <v>0.6038339912957537</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.3388483444202104</v>
+        <v>0.3357196455848012</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.2337141167485484</v>
+        <v>0.1850705196342194</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.2707651567731835</v>
+        <v>0.3064887558572976</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.295842063837699</v>
+        <v>0.2007606361591532</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.4141095341075184</v>
+        <v>0.2087936031279732</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.07395644740569962</v>
+        <v>0.2263905926796983</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0.1343308257638904</v>
+        <v>0.3256991750293952</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.3088411010874428</v>
+        <v>0.3780668426446149</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.7138917474365903</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.9853610104200423</v>
+        <v>-0.2826148595806662</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.8434604398866387</v>
+        <v>-0.1131502069025026</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.1426974514687055</v>
+        <v>0.1931804632314674</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0.09526584820677338</v>
+        <v>0.319997639628897</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.8482053006969811</v>
+        <v>0.5759987112939025</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.2433755852667016</v>
+        <v>0.1061537349914516</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.187097487867067</v>
+        <v>0.3780668426446149</v>
       </c>
       <c r="FV4" t="n">
-        <v>-0.1850852937374524</v>
+        <v>0.5429624848001805</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.4032054219245463</v>
+        <v>0.3951475826455212</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.6958549369561048</v>
+        <v>0.4478759140386502</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.7063328857899899</v>
+        <v>-0.3852605854485088</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.4446340559400524</v>
+        <v>0.3231883953586531</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.1815712281069692</v>
+        <v>-0.3978460319198662</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.4412810767944021</v>
+        <v>0.4745966609970922</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.2713606257862605</v>
+        <v>0.4775486399844678</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.7589633944459735</v>
+        <v>0.2255930006191466</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.373179431445103</v>
+        <v>0.3849039273682522</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.5185463148207045</v>
+        <v>0.2836575995852438</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.2046461773951875</v>
+        <v>0.3101762706046388</v>
       </c>
       <c r="GH4" t="n">
-        <v>-0.4117362876500705</v>
+        <v>0.3473893066168193</v>
       </c>
       <c r="GI4" t="n">
-        <v>0.2244568418024216</v>
+        <v>-0.2238531975882369</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.304405612716988</v>
+        <v>0.2348906702696664</v>
       </c>
       <c r="GK4" t="n">
-        <v>-0.3669683880081986</v>
+        <v>-0.3149878243807529</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.2713606257862605</v>
+        <v>0.206680287309639</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.2068766697239724</v>
+        <v>0.1985346044553965</v>
       </c>
       <c r="GN4" t="n">
-        <v>-0.1536595936439015</v>
+        <v>0.3752009045217218</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.6248281877060242</v>
+        <v>-0.4257697817847576</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.8056772835221877</v>
+        <v>-0.1864852089018281</v>
       </c>
       <c r="GQ4" t="n">
-        <v>0.5979861207903405</v>
+        <v>0.2348906702696665</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.421966332634654</v>
+        <v>0.2348906702696665</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.6878051937916969</v>
+        <v>0.3082394448684856</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.6258779138553828</v>
+        <v>0.3370872740280906</v>
       </c>
       <c r="GU4" t="n">
-        <v>-0.2855373261173337</v>
+        <v>0.2348906702696664</v>
       </c>
       <c r="GV4" t="n">
-        <v>-0.1013226776152216</v>
+        <v>-0.1982595521653404</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.5293853320669224</v>
+        <v>0.4009982558703339</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5275821141139616</v>
+        <v>0.2405096182878404</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.03973966425689023</v>
+        <v>0.3275538538148098</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.468975915336971</v>
+        <v>0.1747302638130667</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.123751447426674</v>
+        <v>0.3664890155669784</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.4296930293543793</v>
+        <v>0.3150254719498886</v>
       </c>
       <c r="HC4" t="n">
-        <v>0.3008264017141791</v>
+        <v>0.224300059686705</v>
       </c>
       <c r="HD4" t="n">
-        <v>0.8347550279830642</v>
+        <v>-0.203366248655788</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.3829480086614049</v>
+        <v>0.5806329076854345</v>
       </c>
       <c r="HF4" t="n">
-        <v>-0.5149183623873741</v>
+        <v>0.3827936211401065</v>
       </c>
       <c r="HG4" t="n">
-        <v>-0.3488836763044976</v>
+        <v>0.6135411963762405</v>
       </c>
       <c r="HH4" t="n">
-        <v>0.2882127400751829</v>
+        <v>0.2205802702047568</v>
       </c>
       <c r="HI4" t="n">
-        <v>-0.1359513836194408</v>
+        <v>-0.2122141136836972</v>
       </c>
       <c r="HJ4" t="n">
-        <v>0.2518212112961867</v>
+        <v>0.2671806462736911</v>
       </c>
       <c r="HK4" t="n">
-        <v>0.1287251618457951</v>
+        <v>-0.3732141493581699</v>
       </c>
       <c r="HL4" t="n">
-        <v>0.8347550279830643</v>
+        <v>0.3686945125412833</v>
       </c>
       <c r="HM4" t="n">
-        <v>0.8347550279830643</v>
+        <v>0.409385249820468</v>
       </c>
       <c r="HN4" t="n">
-        <v>-0.199607862117058</v>
+        <v>0.1478745494297354</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.4003233852735308</v>
+        <v>0.25102994584664</v>
       </c>
       <c r="HP4" t="n">
-        <v>0.8347550279830642</v>
+        <v>0.1568100919791949</v>
       </c>
       <c r="HQ4" t="n">
-        <v>-0.1420412527992209</v>
+        <v>-0.08557708364360911</v>
       </c>
       <c r="HR4" t="n">
-        <v>-0.2101949379635823</v>
+        <v>-0.4143919659722602</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.1486945610056524</v>
+        <v>0.173008186292394</v>
       </c>
       <c r="HT4" t="n">
-        <v>-0.1807181864047881</v>
+        <v>-0.3157786903967812</v>
       </c>
       <c r="HU4" t="n">
-        <v>0.3936961376320483</v>
+        <v>0.591138514515284</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.1967629095999676</v>
+        <v>0.5747872867467658</v>
       </c>
       <c r="HW4" t="n">
-        <v>0.2765450068284701</v>
+        <v>0.3080450870045001</v>
       </c>
       <c r="HX4" t="n">
-        <v>0.3524494655736037</v>
+        <v>0.4259472567123276</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.5121511514291842</v>
+        <v>0.5518031501048656</v>
       </c>
       <c r="HZ4" t="n">
-        <v>-0.1464112692116187</v>
+        <v>0.3922865858076443</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.4469962070956389</v>
+        <v>-0.3540392319419318</v>
       </c>
       <c r="IB4" t="n">
-        <v>0.4534771907411075</v>
+        <v>0.09056274714599148</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.2667383258033753</v>
+        <v>0.3965207631153171</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.213960532365389</v>
+        <v>-0.1895304662937942</v>
       </c>
       <c r="IE4" t="n">
-        <v>0.2584357994261841</v>
+        <v>0.4638293557328528</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.4387843090030155</v>
+        <v>0.2030515494434803</v>
       </c>
       <c r="IG4" t="n">
-        <v>-0.2697120149075819</v>
+        <v>-0.4113344447471515</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.1056520262679576</v>
+        <v>0.08757383659119174</v>
       </c>
       <c r="II4" t="n">
-        <v>0.1908671777032878</v>
+        <v>0.4638293557328528</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0.5805396147662686</v>
+        <v>0.5608305652802579</v>
       </c>
       <c r="IK4" t="n">
-        <v>-0.2462949543929562</v>
+        <v>-0.1690871752151548</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.3749860094289502</v>
+        <v>0.2019538951371035</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.1157357618306195</v>
+        <v>0.4043865277167131</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.1678707561513925</v>
+        <v>-0.4085538775709703</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.4395475845445231</v>
+        <v>0.5492237615709173</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.3084304021380496</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>0.1880151781729858</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>-0.3845384246945964</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.1239268976648382</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.3067213482275076</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.2559123436758711</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>-0.1282058871461244</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.1095991471432246</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>-0.09443705584113678</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>0.1454709132411927</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>0.07223245163604049</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1305291725678613</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.1928423193034762</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.1636230485236665</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>-0.05498172319460425</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>-0.3092214199849447</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>0.07285372661931203</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.1602269073967716</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>-0.05498172319460425</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>-0.2954726259565256</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>0.2809257606766435</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>-0.1554096884610063</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>-0.2007555881864265</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.2891842977441229</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.8386168654503525</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.937932521951617</v>
+        <v>0.7551442745308147</v>
       </c>
     </row>
   </sheetData>
